--- a/Descriptive Statistics/Categorical/Primary_Sector__Target_Issuer__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Primary_Sector__Target_Issuer__summary.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>83.44</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>5.83</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>4.6</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/Primary_Sector__Target_Issuer__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Primary_Sector__Target_Issuer__summary.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C2" t="n">
-        <v>83.5</v>
+        <v>84.08</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>5.83</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4.21</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
